--- a/excel/ZoomLevelVsScale.xlsx
+++ b/excel/ZoomLevelVsScale.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Scale min</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>top[N]nl - N</t>
+  </si>
+  <si>
+    <t>Rounded:</t>
+  </si>
+  <si>
+    <t>Larger zoomlevel prevails</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -169,7 +175,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -180,7 +186,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +194,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -471,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E3" activeCellId="1" sqref="B3:B8 E3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +492,7 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -492,779 +500,892 @@
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="G2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1000</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>750000</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1500000</v>
       </c>
-      <c r="E2" s="1">
-        <f>-LN(D2/$C$12)/LN(2)</f>
+      <c r="E3" s="1">
+        <f>-LN(D3/$C$13)/LN(2)</f>
         <v>6.6236560194489211</v>
       </c>
-      <c r="F2" s="1">
-        <f>-LN(C2/$C$12)/LN(2)</f>
+      <c r="F3" s="1">
+        <f>-LN(C3/$C$13)/LN(2)</f>
         <v>7.6236560194489211</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>ROUNDDOWN(F3-0.5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>J4-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>500</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>350000</v>
       </c>
-      <c r="D3">
-        <f>C2</f>
+      <c r="D4">
+        <f>C3</f>
         <v>750000</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E7" si="0">-LN(D3/$C$12)/LN(2)</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E8" si="0">-LN(D4/$C$13)/LN(2)</f>
         <v>7.6236560194489211</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="1">-LN(C3/$C$12)/LN(2)</f>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F8" si="1">-LN(C4/$C$13)/LN(2)</f>
         <v>8.7231916929998352</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="H4">
+        <f>I3+1</f>
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="2">ROUNDDOWN(F4-0.5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <f>ROUNDDOWN(E4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="3">J5-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>250</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>150000</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D7" si="2">C3</f>
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="4">C4</f>
         <v>350000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>8.7231916929998352</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>9.9455841143362829</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="5">I4+1</f>
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J8" si="6">ROUNDDOWN(E5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>75000</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
+      <c r="D6">
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>9.9455841143362829</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>10.945584114336285</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>25000</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
+      <c r="D7">
+        <f t="shared" si="4"/>
         <v>75000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>10.945584114336285</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>12.530546615057439</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>5000</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
+      <c r="D8">
+        <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>12.530546615057439</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>14.852474709944802</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H8">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="I8">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>295828763</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13">
-        <f>C11/2</f>
+      <c r="C13" s="13">
+        <f>C12/2</f>
         <v>147914381.5</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="11" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>-1</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <f>$C$11/(2^B16)</f>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:C40" si="7">$C$12/(2^B17)</f>
         <v>295828763</v>
       </c>
-      <c r="D16">
-        <f>-LN(C16/$C$11)/LN(2)</f>
+      <c r="D17">
+        <f t="shared" ref="D17:D40" si="8">-LN(C17/$C$12)/LN(2)</f>
         <v>0</v>
       </c>
-      <c r="E16">
-        <f>-LN(C16/$C$12)/LN(2)</f>
+      <c r="E17">
+        <f>-LN(C17/$C$13)/LN(2)</f>
         <v>-1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>13</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>502100</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>25.2</v>
       </c>
-      <c r="L16" s="5">
-        <f>J16/K16</f>
+      <c r="L17" s="5">
+        <f>J17/K17</f>
         <v>19924.603174603177</v>
       </c>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
-        <f>$C$11/(2^B17)</f>
+      <c r="C18" s="3">
+        <f t="shared" si="7"/>
         <v>147914381.5</v>
       </c>
-      <c r="D17">
-        <f>-LN(C17/$C$11)/LN(2)</f>
+      <c r="D18">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E39" si="3">-LN(C17/$C$12)/LN(2)</f>
+      <c r="E18">
+        <f t="shared" ref="E18:E40" si="9">-LN(C18/$C$13)/LN(2)</f>
         <v>0</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="I17" s="1">
-        <v>12</v>
-      </c>
-      <c r="J17">
-        <v>1099900</v>
-      </c>
-      <c r="K17">
-        <v>27.65</v>
-      </c>
-      <c r="L17" s="2">
-        <f>J17/K17</f>
-        <v>39779.385171790236</v>
-      </c>
-      <c r="M17" s="4">
-        <f>L17/$L$16</f>
-        <v>1.9964957305897508</v>
-      </c>
-      <c r="N17" s="10">
-        <f>(M17-2)/M17</f>
-        <v>-1.7552100696023205E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <f>$C$11/(2^B18)</f>
-        <v>73957190.75</v>
-      </c>
-      <c r="D18">
-        <f>-LN(C18/$C$11)/LN(2)</f>
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
       <c r="G18" s="12"/>
       <c r="I18" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18">
-        <v>1852200</v>
+        <v>1099900</v>
       </c>
       <c r="K18">
-        <v>23.35</v>
+        <v>27.65</v>
       </c>
       <c r="L18" s="2">
         <f>J18/K18</f>
-        <v>79323.340471092073</v>
+        <v>39779.385171790236</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:M19" si="4">L18/$L$16</f>
-        <v>3.9811754229665803</v>
+        <f>L18/$L$17</f>
+        <v>1.9964957305897508</v>
       </c>
       <c r="N18" s="10">
-        <f>(M18-4)/M18</f>
-        <v>-4.7283967756920637E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f>(M18-2)/M18</f>
+        <v>-1.7552100696023205E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
       <c r="C19" s="3">
-        <f>$C$11/(2^B19)</f>
-        <v>36978595.375</v>
+        <f t="shared" si="7"/>
+        <v>73957190.75</v>
       </c>
       <c r="D19">
-        <f>-LN(C19/$C$11)/LN(2)</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="12"/>
       <c r="I19" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19">
-        <v>4419300</v>
+        <v>1852200</v>
       </c>
       <c r="K19">
-        <v>27.8</v>
+        <v>23.35</v>
       </c>
       <c r="L19" s="2">
         <f>J19/K19</f>
+        <v>79323.340471092073</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" ref="M19:M20" si="10">L19/$L$17</f>
+        <v>3.9811754229665803</v>
+      </c>
+      <c r="N19" s="10">
+        <f>(M19-4)/M19</f>
+        <v>-4.7283967756920637E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="7"/>
+        <v>36978595.375</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>4419300</v>
+      </c>
+      <c r="K20">
+        <v>27.8</v>
+      </c>
+      <c r="L20" s="2">
+        <f>J20/K20</f>
         <v>158967.62589928057</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="4"/>
+      <c r="M20" s="4">
+        <f t="shared" si="10"/>
         <v>7.9784588182869349</v>
       </c>
-      <c r="N19" s="10">
-        <f>(M19-8)/M19</f>
+      <c r="N20" s="10">
+        <f>(M20-8)/M20</f>
         <v>-2.6999176411980534E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
-        <f>$C$11/(2^B20)</f>
+      <c r="C21" s="3">
+        <f t="shared" si="7"/>
         <v>18489297.6875</v>
       </c>
-      <c r="D20">
-        <f>-LN(C20/$C$11)/LN(2)</f>
+      <c r="D21">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
+      <c r="E21">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
-        <f>$C$11/(2^B21)</f>
+      <c r="C22" s="3">
+        <f t="shared" si="7"/>
         <v>9244648.84375</v>
       </c>
-      <c r="D21">
-        <f>-LN(C21/$C$11)/LN(2)</f>
+      <c r="D22">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
+      <c r="E22">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
-        <f>$C$11/(2^B22)</f>
+      <c r="C23" s="3">
+        <f t="shared" si="7"/>
         <v>4622324.421875</v>
       </c>
-      <c r="D22">
-        <f>-LN(C22/$C$11)/LN(2)</f>
+      <c r="D23">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
+      <c r="E23">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C23" s="3">
-        <f>$C$11/(2^B23)</f>
+      <c r="C24" s="3">
+        <f t="shared" si="7"/>
         <v>2311162.2109375</v>
       </c>
-      <c r="D23">
-        <f>-LN(C23/$C$11)/LN(2)</f>
+      <c r="D24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
+      <c r="E24">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>7</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C24" s="3">
-        <f>$C$11/(2^B24)</f>
+      <c r="C25" s="3">
+        <f t="shared" si="7"/>
         <v>1155581.10546875</v>
       </c>
-      <c r="D24">
-        <f>-LN(C24/$C$11)/LN(2)</f>
+      <c r="D25">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
+      <c r="E25">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="C25" s="3">
-        <f>$C$11/(2^B25)</f>
+      <c r="C26" s="3">
+        <f t="shared" si="7"/>
         <v>577790.552734375</v>
       </c>
-      <c r="D25">
-        <f>-LN(C25/$C$11)/LN(2)</f>
+      <c r="D26">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
+      <c r="E26">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
-        <f>$C$11/(2^B26)</f>
+      <c r="C27" s="3">
+        <f t="shared" si="7"/>
         <v>288895.2763671875</v>
       </c>
-      <c r="D26">
-        <f>-LN(C26/$C$11)/LN(2)</f>
+      <c r="D27">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
+      <c r="E27">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>11</v>
       </c>
-      <c r="C27" s="3">
-        <f>$C$11/(2^B27)</f>
+      <c r="C28" s="3">
+        <f t="shared" si="7"/>
         <v>144447.63818359375</v>
       </c>
-      <c r="D27">
-        <f>-LN(C27/$C$11)/LN(2)</f>
+      <c r="D28">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
+      <c r="E28">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>12</v>
       </c>
-      <c r="C28" s="3">
-        <f>$C$11/(2^B28)</f>
+      <c r="C29" s="3">
+        <f t="shared" si="7"/>
         <v>72223.819091796875</v>
       </c>
-      <c r="D28">
-        <f>-LN(C28/$C$11)/LN(2)</f>
+      <c r="D29">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
+      <c r="E29">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>12</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
-        <f>$C$11/(2^B29)</f>
+      <c r="C30" s="3">
+        <f t="shared" si="7"/>
         <v>36111.909545898438</v>
       </c>
-      <c r="D29">
-        <f>-LN(C29/$C$11)/LN(2)</f>
+      <c r="D30">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="3"/>
+      <c r="E30">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>13</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>14</v>
       </c>
-      <c r="C30" s="6">
-        <f>$C$11/(2^B30)</f>
+      <c r="C31" s="6">
+        <f t="shared" si="7"/>
         <v>18055.954772949219</v>
       </c>
-      <c r="D30">
-        <f>-LN(C30/$C$11)/LN(2)</f>
+      <c r="D31">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
+      <c r="E31">
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>14</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>15</v>
       </c>
-      <c r="C31" s="3">
-        <f>$C$11/(2^B31)</f>
+      <c r="C32" s="3">
+        <f t="shared" si="7"/>
         <v>9027.9773864746094</v>
       </c>
-      <c r="D31">
-        <f>-LN(C31/$C$11)/LN(2)</f>
+      <c r="D32">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
+      <c r="E32">
+        <f t="shared" si="9"/>
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3">
-        <f>$C$11/(2^B32)</f>
-        <v>4513.9886932373047</v>
-      </c>
-      <c r="D32">
-        <f>-LN(C32/$C$11)/LN(2)</f>
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
         <v>16</v>
       </c>
-      <c r="B33">
-        <v>17</v>
-      </c>
       <c r="C33" s="3">
-        <f>$C$11/(2^B33)</f>
-        <v>2256.9943466186523</v>
+        <f t="shared" si="7"/>
+        <v>4513.9886932373047</v>
       </c>
       <c r="D33">
-        <f>-LN(C33/$C$11)/LN(2)</f>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
         <v>17</v>
       </c>
-      <c r="B34">
-        <v>18</v>
-      </c>
       <c r="C34" s="3">
-        <f>$C$11/(2^B34)</f>
-        <v>1128.4971733093262</v>
+        <f t="shared" si="7"/>
+        <v>2256.9943466186523</v>
       </c>
       <c r="D34">
-        <f>-LN(C34/$C$11)/LN(2)</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
         <v>18</v>
       </c>
-      <c r="B35">
-        <v>19</v>
-      </c>
       <c r="C35" s="3">
-        <f>$C$11/(2^B35)</f>
-        <v>564.24858665466309</v>
+        <f t="shared" si="7"/>
+        <v>1128.4971733093262</v>
       </c>
       <c r="D35">
-        <f>-LN(C35/$C$11)/LN(2)</f>
-        <v>19</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
         <v>19</v>
       </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
       <c r="C36" s="3">
-        <f>$C$11/(2^B36)</f>
-        <v>282.12429332733154</v>
+        <f t="shared" si="7"/>
+        <v>564.24858665466309</v>
       </c>
       <c r="D36">
-        <f>-LN(C36/$C$11)/LN(2)</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>19</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
         <v>20</v>
       </c>
-      <c r="B37">
-        <v>21</v>
-      </c>
       <c r="C37" s="3">
-        <f>$C$11/(2^B37)</f>
-        <v>141.06214666366577</v>
+        <f t="shared" si="7"/>
+        <v>282.12429332733154</v>
       </c>
       <c r="D37">
-        <f>-LN(C37/$C$11)/LN(2)</f>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
         <v>21</v>
       </c>
-      <c r="B38">
-        <v>22</v>
-      </c>
       <c r="C38" s="3">
-        <f>$C$11/(2^B38)</f>
-        <v>70.531073331832886</v>
+        <f t="shared" si="7"/>
+        <v>141.06214666366577</v>
       </c>
       <c r="D38">
-        <f>-LN(C38/$C$11)/LN(2)</f>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39">
         <v>22</v>
       </c>
-      <c r="B39">
+      <c r="C39" s="3">
+        <f t="shared" si="7"/>
+        <v>70.531073331832886</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40">
         <v>23</v>
       </c>
-      <c r="C39" s="3">
-        <f>$C$11/(2^B39)</f>
+      <c r="C40" s="3">
+        <f t="shared" si="7"/>
         <v>35.265536665916443</v>
       </c>
-      <c r="D39">
-        <f>-LN(C39/$C$11)/LN(2)</f>
+      <c r="D40">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
+      <c r="E40">
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
